--- a/软件定义建模与执行/content.xlsx
+++ b/软件定义建模与执行/content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室相关\人机物\论文\RelatedWorks\软件定义建模与执行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37825D21-3B63-444D-BF7A-6592D2DE7FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B715F6-50DA-4BDC-8F03-93600F0BE30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
   </si>
@@ -63,6 +63,64 @@
   <si>
     <t>First Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exogenous Coordination for Building Fog-Based Cyber Physical Social Computing and Networking Systems</t>
+  </si>
+  <si>
+    <t>Nam KY Giang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the proliferation of smart embedded devices, cyber physical social computing and networking systems (CPSCN) are emerging as a next generation of social networks. Unlike traditional social networks that run on cloud-based infrastructure, CPSCN systems usually depend on a large number of distributed, heterogeneous devices, such as mobile phones, smart vehicles, or network access points. These computing resources, which are often referred to as fog computing systems, provide a gateway to the physical world, and thus offer new possibilities for social applications. Unfortunately, building CPSCN systems that leverage fog computing infrastructure is not straightforward. Significant challenges arise from the large scale distribution of computing resources over a wide area, and the dynamic nature of multiple, possibly mobile, hosts. In this paper, we extend our previous work on a distributed dataflow programming model and propose an application platform for realizing CPSCN systems. A key aspect of our work is the development of an exogenous coordination model, which exhibits a separation of concern between computation and communication activities, and helps resolve some of the challenges brought about by the dynamic and large scale nature of CPSCN systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8374025/</t>
+  </si>
+  <si>
+    <t>A Triangular NodeTrix Visualization Interface for Overlapping Social Community Structures of Cyber-Physical-Social</t>
+  </si>
+  <si>
+    <t>ChunCheng Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/7862764</t>
+  </si>
+  <si>
+    <t>This work proposes a cyber-physical-social system (CPSS) framework for smart factories which associates the social-network-based physical factory circumference with the cyber control through a visualization interface based on NodeTrix. The NodeTrix representation consisting of adjacency matrices and node-link diagrams has been popularly used in social network analysis. Different from previous works on NodeTrix based on square-shaped matrices, the proposed NodeTrix applies triangle-shaped matrices for visualizing overlapping communities to save the displaying space, and a simulated annealing algorithm is used to reduce the crossings among links and communities. In the CPSS for smart factories, working-in-process (WIP) products are categorized according to their attributes, and are placed at different storage locations for later different production processes. By the NodeTrix-based interface for CPSS, when users with different domains and experiences work together to make instant decisions on production and logistics, the physical production environment will be adjusted accordingly and immediately through technological support of Industry 4.0. Through the interface, the information on locations, parameters, and interoperability of WIP products can be visualized and adjusted in time. By comparison with other works, the proposed representation looks promising in displaying social networks for the CPSS with fewer crossings within a smaller screen space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Methodology for the Design of Application-Specific Cyber-Physical Social Sensing Co-Simulators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/17/10/2177</t>
+  </si>
+  <si>
+    <t>Cyber-Physical Social Sensing (CPSS) is a new trend in the context of pervasive sensing. In these new systems, various domains coexist in time, evolve together and influence each other. Thus, application-specific tools are necessary for specifying and validating designs and simulating systems. However, nowadays, different tools are employed to simulate each domain independently. Mainly, the cause of the lack of co-simulation instruments to simulate all domains together is the extreme difficulty of combining and synchronizing various tools. In order to reduce that difficulty, an adequate architecture for the final co-simulator must be selected. Therefore, in this paper the authors investigate and propose a methodology for the design of CPSS co-simulation tools. The paper describes the four steps that software architects should follow in order to design the most adequate co-simulator for a certain application, considering the final users’ needs and requirements and various additional factors such as the development team’s experience. Moreover, the first practical use case of the proposed methodology is provided. An experimental validation is also included in order to evaluate the performing of the proposed co-simulator and to determine the correctness of the proposal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borja Bordel Sánchez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Cloud-Edge Computing Framework for Cyber-Physical-Social Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaokang Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyber-physical-social systems (CPSSs) represent an emerging paradigm encompassing the cyber world, physical world and social world. One of the main purposes of CPSSs is to provide high-quality, proactive, and personalized services for humans. For CPSSs to realize this purpose, a novel services framework is needed. In this article, we present a tensor-based cloud-edge computing framework that mainly includes the cloud and edge planes. The cloud plane is used to process large-scale, long-term, global data, which can be used to obtain decision making information such as the feature, law, or rule sets. The edge plane is used to process small-scale, short-term, local data, which is used to present the real-time situation. Also, personalized services will be directly provided for humans by the edge plane according to the obtained feature, law, or rule sets and the local high-quality data obtained in the edge plane. Then a tensor-based services model is proposed to match the requirement of users in the local CPSS. Finally, a case study about CPSS services is proposed to demonstrate the application features of the proposed framework.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8114554</t>
   </si>
 </sst>
 </file>
@@ -125,12 +183,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="67.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="180.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.53125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
@@ -453,27 +513,104 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>2019</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:6" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/软件定义建模与执行/content.xlsx
+++ b/软件定义建模与执行/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室相关\人机物\论文\RelatedWorks\软件定义建模与执行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B715F6-50DA-4BDC-8F03-93600F0BE30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479C3B7-30E0-4D91-8CBB-4B7D93496433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
   </si>
@@ -121,6 +121,37 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8114554</t>
+  </si>
+  <si>
+    <t>Ming Yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Multi-Objective Task Scheduling Method for Fog Computing in Cyber-Physical-Social Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog computing provides users with data storage, computing, and other services by using fog layer devices close to edge devices. Tasks and resource scheduling in fog computing has become a research hotspot. For the multi-objective task-scheduling problem in fog computing, an adaptive multi-objective optimization task scheduling method for fog computing (FOG-AMOSM) is proposed in this paper. In this method, the total execution time and the task resource cost in the fog network are taken as the optimization target of resource allocation, and a multi-objective task scheduling model is designed. Since the objective model is a Pareto optimal solution problem, the global optimal solution can be obtained by using multi-objective optimization theory and the improved multi-objective evolutionary heuristic algorithm. Moreover, to obtain a better distribution of the current task scheduling group, the neighborhood is adaptively changed according to the current situation of the task scheduling group in fog computing, which avoids the problem that the neighborhood value caused by the neighborhood policy in the multi-objective algorithm affects the distribution of the task scheduling population. This algorithm is used to solve the non-inferior solution set of the utility function index of fog computing task scheduling to try to solve the multi-objective cooperative optimization problem in fog computing task scheduling. The results show that the proposed method has better performance than other methods in terms of total task execution time, resource cost and load dimensions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9049337</t>
+  </si>
+  <si>
+    <t>A two-layer optimal scheduling framework for energy savings in a data center for Cyber–Physical–Social Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QingxiaZhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S138376212100045X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In recent years, big data and data analytics based on Cyber–Physical–Social Systems (CPSS) have become increasingly popular in providing valued services to humans. For many applications of CPSS, adequate computing infrastructure, which can be realized using powerful data centers (DCs), is needed. These DCs can then provide CPSS application developers with flexible and efficient High-Performance-Computing-Communications services. In DCs, the energy consumption of the cooling system which dissipates the heat generated by information technology (IT) devices should be optimized. Since the cooling system is one of the main energy consumers of DCs, optimization of its energy consumption can drastically reduce the operating costs while maintaining stable operation of the IT devices by efficient heat dissipation. Therefore, there is continuing development on improving the performance of cooling systems for DCs using different optimization strategies. In particular, model-based optimization algorithms have had impressive advances, but their deployment in real physical systems often becomes difficult due to limited data, poor optimization efficiency, and potential operation risks. In this paper, we propose a two-layer optimal scheduling framework for room-level cooling of DCs. In the global layer, we use limited data to build a set of novel physically-based empirical models to achieve accurate system energy tracking. Then with defined equipment operating constraints, a genetic algorithm efficiently obtains the optimal plan of all equipment control while ensuring safe system operations. In the local layer, through interactions with the global layer, local precision air conditioners are regulated to stabilize the room temperature within a safe range. To test our solution in a real physical system, we deployed the two-layer optimal scheduling technique in the real DC cooling system of Postal Savings Bank of China in Hefei, China. Our solution achieved an impressive average reduction of 6.1% on cooling load factor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -485,7 +516,7 @@
     <col min="3" max="3" width="18.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.73046875" style="1" customWidth="1"/>
     <col min="5" max="5" width="180.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.53125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.06640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -609,12 +640,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:6" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" location="!" display="https://www.sciencedirect.com/science/article/pii/S138376212100045X - !" xr:uid="{63565379-90DB-4248-8221-A72BE6EDC9F3}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{4C1D034B-C713-4558-87FB-151FB0C6AC0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>